--- a/Part 4 - Implementation of evolutionary Axelrod Tournament/Additional Files/state_matrix.xlsx
+++ b/Part 4 - Implementation of evolutionary Axelrod Tournament/Additional Files/state_matrix.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="194" uniqueCount="194">
   <si>
     <t>State\Strategy</t>
   </si>
@@ -100,6 +100,492 @@
   </si>
   <si>
     <t>State 28</t>
+  </si>
+  <si>
+    <t>State 29</t>
+  </si>
+  <si>
+    <t>State 30</t>
+  </si>
+  <si>
+    <t>State 31</t>
+  </si>
+  <si>
+    <t>State 32</t>
+  </si>
+  <si>
+    <t>State 33</t>
+  </si>
+  <si>
+    <t>State 34</t>
+  </si>
+  <si>
+    <t>State 35</t>
+  </si>
+  <si>
+    <t>State 36</t>
+  </si>
+  <si>
+    <t>State 37</t>
+  </si>
+  <si>
+    <t>State 38</t>
+  </si>
+  <si>
+    <t>State 39</t>
+  </si>
+  <si>
+    <t>State 40</t>
+  </si>
+  <si>
+    <t>State 41</t>
+  </si>
+  <si>
+    <t>State 42</t>
+  </si>
+  <si>
+    <t>State 43</t>
+  </si>
+  <si>
+    <t>State 44</t>
+  </si>
+  <si>
+    <t>State 45</t>
+  </si>
+  <si>
+    <t>State 46</t>
+  </si>
+  <si>
+    <t>State 47</t>
+  </si>
+  <si>
+    <t>State 48</t>
+  </si>
+  <si>
+    <t>State 49</t>
+  </si>
+  <si>
+    <t>State 50</t>
+  </si>
+  <si>
+    <t>State 51</t>
+  </si>
+  <si>
+    <t>State 52</t>
+  </si>
+  <si>
+    <t>State 53</t>
+  </si>
+  <si>
+    <t>State 54</t>
+  </si>
+  <si>
+    <t>State 55</t>
+  </si>
+  <si>
+    <t>State 56</t>
+  </si>
+  <si>
+    <t>State 57</t>
+  </si>
+  <si>
+    <t>State 58</t>
+  </si>
+  <si>
+    <t>State 59</t>
+  </si>
+  <si>
+    <t>State 60</t>
+  </si>
+  <si>
+    <t>State 61</t>
+  </si>
+  <si>
+    <t>State 62</t>
+  </si>
+  <si>
+    <t>State 63</t>
+  </si>
+  <si>
+    <t>State 64</t>
+  </si>
+  <si>
+    <t>State 65</t>
+  </si>
+  <si>
+    <t>State 66</t>
+  </si>
+  <si>
+    <t>State 67</t>
+  </si>
+  <si>
+    <t>State 68</t>
+  </si>
+  <si>
+    <t>State 69</t>
+  </si>
+  <si>
+    <t>State 70</t>
+  </si>
+  <si>
+    <t>State 71</t>
+  </si>
+  <si>
+    <t>State 72</t>
+  </si>
+  <si>
+    <t>State 73</t>
+  </si>
+  <si>
+    <t>State 74</t>
+  </si>
+  <si>
+    <t>State 75</t>
+  </si>
+  <si>
+    <t>State 76</t>
+  </si>
+  <si>
+    <t>State 77</t>
+  </si>
+  <si>
+    <t>State 78</t>
+  </si>
+  <si>
+    <t>State 79</t>
+  </si>
+  <si>
+    <t>State 80</t>
+  </si>
+  <si>
+    <t>State 81</t>
+  </si>
+  <si>
+    <t>State 82</t>
+  </si>
+  <si>
+    <t>State 83</t>
+  </si>
+  <si>
+    <t>State 84</t>
+  </si>
+  <si>
+    <t>State 85</t>
+  </si>
+  <si>
+    <t>State 86</t>
+  </si>
+  <si>
+    <t>State 87</t>
+  </si>
+  <si>
+    <t>State 88</t>
+  </si>
+  <si>
+    <t>State 89</t>
+  </si>
+  <si>
+    <t>State 90</t>
+  </si>
+  <si>
+    <t>State 91</t>
+  </si>
+  <si>
+    <t>State 92</t>
+  </si>
+  <si>
+    <t>State 93</t>
+  </si>
+  <si>
+    <t>State 94</t>
+  </si>
+  <si>
+    <t>State 95</t>
+  </si>
+  <si>
+    <t>State 96</t>
+  </si>
+  <si>
+    <t>State 97</t>
+  </si>
+  <si>
+    <t>State 98</t>
+  </si>
+  <si>
+    <t>State 99</t>
+  </si>
+  <si>
+    <t>State 100</t>
+  </si>
+  <si>
+    <t>State 101</t>
+  </si>
+  <si>
+    <t>State 102</t>
+  </si>
+  <si>
+    <t>State 103</t>
+  </si>
+  <si>
+    <t>State 104</t>
+  </si>
+  <si>
+    <t>State 105</t>
+  </si>
+  <si>
+    <t>State 106</t>
+  </si>
+  <si>
+    <t>State 107</t>
+  </si>
+  <si>
+    <t>State 108</t>
+  </si>
+  <si>
+    <t>State 109</t>
+  </si>
+  <si>
+    <t>State 110</t>
+  </si>
+  <si>
+    <t>State 111</t>
+  </si>
+  <si>
+    <t>State 112</t>
+  </si>
+  <si>
+    <t>State 113</t>
+  </si>
+  <si>
+    <t>State 114</t>
+  </si>
+  <si>
+    <t>State 115</t>
+  </si>
+  <si>
+    <t>State 116</t>
+  </si>
+  <si>
+    <t>State 117</t>
+  </si>
+  <si>
+    <t>State 118</t>
+  </si>
+  <si>
+    <t>State 119</t>
+  </si>
+  <si>
+    <t>State 120</t>
+  </si>
+  <si>
+    <t>State 121</t>
+  </si>
+  <si>
+    <t>State 122</t>
+  </si>
+  <si>
+    <t>State 123</t>
+  </si>
+  <si>
+    <t>State 124</t>
+  </si>
+  <si>
+    <t>State 125</t>
+  </si>
+  <si>
+    <t>State 126</t>
+  </si>
+  <si>
+    <t>State 127</t>
+  </si>
+  <si>
+    <t>State 128</t>
+  </si>
+  <si>
+    <t>State 129</t>
+  </si>
+  <si>
+    <t>State 130</t>
+  </si>
+  <si>
+    <t>State 131</t>
+  </si>
+  <si>
+    <t>State 132</t>
+  </si>
+  <si>
+    <t>State 133</t>
+  </si>
+  <si>
+    <t>State 134</t>
+  </si>
+  <si>
+    <t>State 135</t>
+  </si>
+  <si>
+    <t>State 136</t>
+  </si>
+  <si>
+    <t>State 137</t>
+  </si>
+  <si>
+    <t>State 138</t>
+  </si>
+  <si>
+    <t>State 139</t>
+  </si>
+  <si>
+    <t>State 140</t>
+  </si>
+  <si>
+    <t>State 141</t>
+  </si>
+  <si>
+    <t>State 142</t>
+  </si>
+  <si>
+    <t>State 143</t>
+  </si>
+  <si>
+    <t>State 144</t>
+  </si>
+  <si>
+    <t>State 145</t>
+  </si>
+  <si>
+    <t>State 146</t>
+  </si>
+  <si>
+    <t>State 147</t>
+  </si>
+  <si>
+    <t>State 148</t>
+  </si>
+  <si>
+    <t>State 149</t>
+  </si>
+  <si>
+    <t>State 150</t>
+  </si>
+  <si>
+    <t>State 151</t>
+  </si>
+  <si>
+    <t>State 152</t>
+  </si>
+  <si>
+    <t>State 153</t>
+  </si>
+  <si>
+    <t>State 154</t>
+  </si>
+  <si>
+    <t>State 155</t>
+  </si>
+  <si>
+    <t>State 156</t>
+  </si>
+  <si>
+    <t>State 157</t>
+  </si>
+  <si>
+    <t>State 158</t>
+  </si>
+  <si>
+    <t>State 159</t>
+  </si>
+  <si>
+    <t>State 160</t>
+  </si>
+  <si>
+    <t>State 161</t>
+  </si>
+  <si>
+    <t>State 162</t>
+  </si>
+  <si>
+    <t>State 163</t>
+  </si>
+  <si>
+    <t>State 164</t>
+  </si>
+  <si>
+    <t>State 165</t>
+  </si>
+  <si>
+    <t>State 166</t>
+  </si>
+  <si>
+    <t>State 167</t>
+  </si>
+  <si>
+    <t>State 168</t>
+  </si>
+  <si>
+    <t>State 169</t>
+  </si>
+  <si>
+    <t>State 170</t>
+  </si>
+  <si>
+    <t>State 171</t>
+  </si>
+  <si>
+    <t>State 172</t>
+  </si>
+  <si>
+    <t>State 173</t>
+  </si>
+  <si>
+    <t>State 174</t>
+  </si>
+  <si>
+    <t>State 175</t>
+  </si>
+  <si>
+    <t>State 176</t>
+  </si>
+  <si>
+    <t>State 177</t>
+  </si>
+  <si>
+    <t>State 178</t>
+  </si>
+  <si>
+    <t>State 179</t>
+  </si>
+  <si>
+    <t>State 180</t>
+  </si>
+  <si>
+    <t>State 181</t>
+  </si>
+  <si>
+    <t>State 182</t>
+  </si>
+  <si>
+    <t>State 183</t>
+  </si>
+  <si>
+    <t>State 184</t>
+  </si>
+  <si>
+    <t>State 185</t>
+  </si>
+  <si>
+    <t>State 186</t>
+  </si>
+  <si>
+    <t>State 187</t>
+  </si>
+  <si>
+    <t>State 188</t>
+  </si>
+  <si>
+    <t>State 189</t>
+  </si>
+  <si>
+    <t>State 190</t>
   </si>
   <si>
     <t>(DDC)*</t>
@@ -154,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -171,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -191,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -205,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -219,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -233,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -247,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -261,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -275,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -283,13 +769,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -297,13 +783,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -311,13 +797,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -325,13 +811,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -339,13 +825,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -353,13 +839,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -367,13 +853,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -381,13 +867,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -395,13 +881,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -409,13 +895,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -423,13 +909,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -437,13 +923,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D20" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -451,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -465,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -479,13 +965,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -493,13 +979,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -507,13 +993,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -521,13 +1007,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -535,13 +1021,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -549,13 +1035,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -563,12 +1049,2280 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0">
+        <v>9</v>
+      </c>
+      <c r="D30" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0">
+        <v>13</v>
+      </c>
+      <c r="D34" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0">
+        <v>14</v>
+      </c>
+      <c r="D35" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0">
+        <v>15</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0">
+        <v>16</v>
+      </c>
+      <c r="D37" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0">
+        <v>2</v>
+      </c>
+      <c r="C41" s="0">
+        <v>2</v>
+      </c>
+      <c r="D41" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0">
+        <v>2</v>
+      </c>
+      <c r="C43" s="0">
+        <v>4</v>
+      </c>
+      <c r="D43" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0">
+        <v>7</v>
+      </c>
+      <c r="D46" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0">
+        <v>8</v>
+      </c>
+      <c r="D47" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0">
+        <v>9</v>
+      </c>
+      <c r="D48" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0">
+        <v>10</v>
+      </c>
+      <c r="D49" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>11</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0">
+        <v>12</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0">
+        <v>2</v>
+      </c>
+      <c r="C53" s="0">
+        <v>14</v>
+      </c>
+      <c r="D53" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0">
+        <v>15</v>
+      </c>
+      <c r="D54" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0">
+        <v>2</v>
+      </c>
+      <c r="C55" s="0">
+        <v>16</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0">
+        <v>3</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0">
+        <v>3</v>
+      </c>
+      <c r="C60" s="0">
+        <v>4</v>
+      </c>
+      <c r="D60" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0">
+        <v>3</v>
+      </c>
+      <c r="C61" s="0">
+        <v>5</v>
+      </c>
+      <c r="D61" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0">
+        <v>3</v>
+      </c>
+      <c r="C62" s="0">
+        <v>6</v>
+      </c>
+      <c r="D62" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0">
+        <v>3</v>
+      </c>
+      <c r="C63" s="0">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0">
+        <v>3</v>
+      </c>
+      <c r="C64" s="0">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0">
+        <v>3</v>
+      </c>
+      <c r="C65" s="0">
+        <v>9</v>
+      </c>
+      <c r="D65" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0">
+        <v>3</v>
+      </c>
+      <c r="C66" s="0">
+        <v>10</v>
+      </c>
+      <c r="D66" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0">
+        <v>3</v>
+      </c>
+      <c r="C67" s="0">
+        <v>11</v>
+      </c>
+      <c r="D67" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0">
+        <v>3</v>
+      </c>
+      <c r="C68" s="0">
+        <v>12</v>
+      </c>
+      <c r="D68" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0">
+        <v>3</v>
+      </c>
+      <c r="C69" s="0">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0">
+        <v>3</v>
+      </c>
+      <c r="C70" s="0">
+        <v>14</v>
+      </c>
+      <c r="D70" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0">
+        <v>3</v>
+      </c>
+      <c r="C71" s="0">
+        <v>15</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0">
+        <v>4</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0">
+        <v>4</v>
+      </c>
+      <c r="C73" s="0">
+        <v>1</v>
+      </c>
+      <c r="D73" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0">
+        <v>4</v>
+      </c>
+      <c r="C74" s="0">
+        <v>2</v>
+      </c>
+      <c r="D74" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0">
+        <v>4</v>
+      </c>
+      <c r="C75" s="0">
+        <v>3</v>
+      </c>
+      <c r="D75" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0">
+        <v>4</v>
+      </c>
+      <c r="C76" s="0">
+        <v>4</v>
+      </c>
+      <c r="D76" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0">
+        <v>4</v>
+      </c>
+      <c r="C77" s="0">
+        <v>5</v>
+      </c>
+      <c r="D77" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0">
+        <v>6</v>
+      </c>
+      <c r="D78" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0">
+        <v>4</v>
+      </c>
+      <c r="C79" s="0">
+        <v>7</v>
+      </c>
+      <c r="D79" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0">
+        <v>4</v>
+      </c>
+      <c r="C80" s="0">
+        <v>8</v>
+      </c>
+      <c r="D80" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0">
+        <v>4</v>
+      </c>
+      <c r="C81" s="0">
+        <v>9</v>
+      </c>
+      <c r="D81" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0">
+        <v>4</v>
+      </c>
+      <c r="C82" s="0">
+        <v>10</v>
+      </c>
+      <c r="D82" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0">
+        <v>4</v>
+      </c>
+      <c r="C83" s="0">
+        <v>11</v>
+      </c>
+      <c r="D83" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0">
+        <v>4</v>
+      </c>
+      <c r="C84" s="0">
+        <v>12</v>
+      </c>
+      <c r="D84" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0">
+        <v>4</v>
+      </c>
+      <c r="C85" s="0">
+        <v>13</v>
+      </c>
+      <c r="D85" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0">
+        <v>4</v>
+      </c>
+      <c r="C86" s="0">
+        <v>14</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0">
+        <v>5</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0</v>
+      </c>
+      <c r="D87" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0">
+        <v>5</v>
+      </c>
+      <c r="C88" s="0">
+        <v>1</v>
+      </c>
+      <c r="D88" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0">
+        <v>5</v>
+      </c>
+      <c r="C89" s="0">
+        <v>2</v>
+      </c>
+      <c r="D89" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0">
+        <v>5</v>
+      </c>
+      <c r="C90" s="0">
+        <v>3</v>
+      </c>
+      <c r="D90" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0">
+        <v>5</v>
+      </c>
+      <c r="C91" s="0">
+        <v>4</v>
+      </c>
+      <c r="D91" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0">
+        <v>5</v>
+      </c>
+      <c r="C92" s="0">
+        <v>5</v>
+      </c>
+      <c r="D92" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0">
+        <v>5</v>
+      </c>
+      <c r="C93" s="0">
+        <v>6</v>
+      </c>
+      <c r="D93" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0">
+        <v>5</v>
+      </c>
+      <c r="C94" s="0">
+        <v>7</v>
+      </c>
+      <c r="D94" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0">
+        <v>5</v>
+      </c>
+      <c r="C95" s="0">
+        <v>8</v>
+      </c>
+      <c r="D95" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0">
+        <v>5</v>
+      </c>
+      <c r="C96" s="0">
+        <v>9</v>
+      </c>
+      <c r="D96" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0">
+        <v>5</v>
+      </c>
+      <c r="C97" s="0">
+        <v>10</v>
+      </c>
+      <c r="D97" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0">
+        <v>5</v>
+      </c>
+      <c r="C98" s="0">
+        <v>11</v>
+      </c>
+      <c r="D98" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0">
+        <v>5</v>
+      </c>
+      <c r="C99" s="0">
+        <v>12</v>
+      </c>
+      <c r="D99" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0">
+        <v>5</v>
+      </c>
+      <c r="C100" s="0">
+        <v>13</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0">
+        <v>6</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0</v>
+      </c>
+      <c r="D101" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0">
+        <v>6</v>
+      </c>
+      <c r="C102" s="0">
+        <v>1</v>
+      </c>
+      <c r="D102" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0">
+        <v>6</v>
+      </c>
+      <c r="C103" s="0">
+        <v>2</v>
+      </c>
+      <c r="D103" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0">
+        <v>6</v>
+      </c>
+      <c r="C104" s="0">
+        <v>3</v>
+      </c>
+      <c r="D104" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0">
+        <v>6</v>
+      </c>
+      <c r="C105" s="0">
+        <v>4</v>
+      </c>
+      <c r="D105" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0">
+        <v>6</v>
+      </c>
+      <c r="C106" s="0">
+        <v>5</v>
+      </c>
+      <c r="D106" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0">
+        <v>6</v>
+      </c>
+      <c r="C107" s="0">
+        <v>6</v>
+      </c>
+      <c r="D107" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0">
+        <v>6</v>
+      </c>
+      <c r="C108" s="0">
+        <v>7</v>
+      </c>
+      <c r="D108" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0">
+        <v>6</v>
+      </c>
+      <c r="C109" s="0">
+        <v>8</v>
+      </c>
+      <c r="D109" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0">
+        <v>6</v>
+      </c>
+      <c r="C110" s="0">
+        <v>9</v>
+      </c>
+      <c r="D110" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0">
+        <v>6</v>
+      </c>
+      <c r="C111" s="0">
+        <v>10</v>
+      </c>
+      <c r="D111" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0">
+        <v>6</v>
+      </c>
+      <c r="C112" s="0">
+        <v>11</v>
+      </c>
+      <c r="D112" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0">
+        <v>6</v>
+      </c>
+      <c r="C113" s="0">
+        <v>12</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0">
+        <v>7</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0">
+        <v>7</v>
+      </c>
+      <c r="C115" s="0">
+        <v>1</v>
+      </c>
+      <c r="D115" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0">
+        <v>7</v>
+      </c>
+      <c r="C116" s="0">
+        <v>2</v>
+      </c>
+      <c r="D116" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0">
+        <v>7</v>
+      </c>
+      <c r="C117" s="0">
+        <v>3</v>
+      </c>
+      <c r="D117" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0">
+        <v>7</v>
+      </c>
+      <c r="C118" s="0">
+        <v>4</v>
+      </c>
+      <c r="D118" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0">
+        <v>7</v>
+      </c>
+      <c r="C119" s="0">
+        <v>5</v>
+      </c>
+      <c r="D119" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0">
+        <v>7</v>
+      </c>
+      <c r="C120" s="0">
+        <v>6</v>
+      </c>
+      <c r="D120" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0">
+        <v>7</v>
+      </c>
+      <c r="C121" s="0">
+        <v>7</v>
+      </c>
+      <c r="D121" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0">
+        <v>7</v>
+      </c>
+      <c r="C122" s="0">
+        <v>8</v>
+      </c>
+      <c r="D122" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0">
+        <v>7</v>
+      </c>
+      <c r="C123" s="0">
+        <v>9</v>
+      </c>
+      <c r="D123" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0">
+        <v>7</v>
+      </c>
+      <c r="C124" s="0">
+        <v>10</v>
+      </c>
+      <c r="D124" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0">
+        <v>7</v>
+      </c>
+      <c r="C125" s="0">
+        <v>11</v>
+      </c>
+      <c r="D125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0">
+        <v>8</v>
+      </c>
+      <c r="C126" s="0">
+        <v>0</v>
+      </c>
+      <c r="D126" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0">
+        <v>8</v>
+      </c>
+      <c r="C127" s="0">
+        <v>1</v>
+      </c>
+      <c r="D127" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0">
+        <v>8</v>
+      </c>
+      <c r="C128" s="0">
+        <v>2</v>
+      </c>
+      <c r="D128" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0">
+        <v>8</v>
+      </c>
+      <c r="C129" s="0">
+        <v>3</v>
+      </c>
+      <c r="D129" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>8</v>
+      </c>
+      <c r="C130" s="0">
+        <v>4</v>
+      </c>
+      <c r="D130" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>8</v>
+      </c>
+      <c r="C131" s="0">
+        <v>5</v>
+      </c>
+      <c r="D131" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>8</v>
+      </c>
+      <c r="C132" s="0">
+        <v>6</v>
+      </c>
+      <c r="D132" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0">
+        <v>8</v>
+      </c>
+      <c r="C133" s="0">
+        <v>7</v>
+      </c>
+      <c r="D133" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0">
+        <v>8</v>
+      </c>
+      <c r="C134" s="0">
+        <v>8</v>
+      </c>
+      <c r="D134" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0">
+        <v>8</v>
+      </c>
+      <c r="C135" s="0">
+        <v>9</v>
+      </c>
+      <c r="D135" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0">
+        <v>8</v>
+      </c>
+      <c r="C136" s="0">
+        <v>10</v>
+      </c>
+      <c r="D136" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0">
+        <v>9</v>
+      </c>
+      <c r="C137" s="0">
+        <v>0</v>
+      </c>
+      <c r="D137" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0">
+        <v>9</v>
+      </c>
+      <c r="C138" s="0">
+        <v>1</v>
+      </c>
+      <c r="D138" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0">
+        <v>9</v>
+      </c>
+      <c r="C139" s="0">
+        <v>2</v>
+      </c>
+      <c r="D139" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0">
+        <v>9</v>
+      </c>
+      <c r="C140" s="0">
+        <v>3</v>
+      </c>
+      <c r="D140" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0">
+        <v>9</v>
+      </c>
+      <c r="C141" s="0">
+        <v>4</v>
+      </c>
+      <c r="D141" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0">
+        <v>9</v>
+      </c>
+      <c r="C142" s="0">
+        <v>5</v>
+      </c>
+      <c r="D142" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0">
+        <v>9</v>
+      </c>
+      <c r="C143" s="0">
+        <v>6</v>
+      </c>
+      <c r="D143" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0">
+        <v>9</v>
+      </c>
+      <c r="C144" s="0">
+        <v>7</v>
+      </c>
+      <c r="D144" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0">
+        <v>9</v>
+      </c>
+      <c r="C145" s="0">
+        <v>8</v>
+      </c>
+      <c r="D145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0">
+        <v>9</v>
+      </c>
+      <c r="C146" s="0">
+        <v>9</v>
+      </c>
+      <c r="D146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0">
+        <v>10</v>
+      </c>
+      <c r="C147" s="0">
+        <v>0</v>
+      </c>
+      <c r="D147" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0">
+        <v>10</v>
+      </c>
+      <c r="C148" s="0">
+        <v>1</v>
+      </c>
+      <c r="D148" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0">
+        <v>10</v>
+      </c>
+      <c r="C149" s="0">
+        <v>2</v>
+      </c>
+      <c r="D149" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0">
+        <v>10</v>
+      </c>
+      <c r="C150" s="0">
+        <v>3</v>
+      </c>
+      <c r="D150" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0">
+        <v>10</v>
+      </c>
+      <c r="C151" s="0">
+        <v>4</v>
+      </c>
+      <c r="D151" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0">
+        <v>10</v>
+      </c>
+      <c r="C152" s="0">
+        <v>5</v>
+      </c>
+      <c r="D152" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0">
+        <v>10</v>
+      </c>
+      <c r="C153" s="0">
+        <v>6</v>
+      </c>
+      <c r="D153" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0">
+        <v>10</v>
+      </c>
+      <c r="C154" s="0">
+        <v>7</v>
+      </c>
+      <c r="D154" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0">
+        <v>10</v>
+      </c>
+      <c r="C155" s="0">
+        <v>8</v>
+      </c>
+      <c r="D155" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0">
+        <v>11</v>
+      </c>
+      <c r="C156" s="0">
+        <v>0</v>
+      </c>
+      <c r="D156" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0">
+        <v>11</v>
+      </c>
+      <c r="C157" s="0">
+        <v>1</v>
+      </c>
+      <c r="D157" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0">
+        <v>11</v>
+      </c>
+      <c r="C158" s="0">
+        <v>2</v>
+      </c>
+      <c r="D158" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0">
+        <v>11</v>
+      </c>
+      <c r="C159" s="0">
+        <v>3</v>
+      </c>
+      <c r="D159" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0">
+        <v>11</v>
+      </c>
+      <c r="C160" s="0">
+        <v>4</v>
+      </c>
+      <c r="D160" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0">
+        <v>11</v>
+      </c>
+      <c r="C161" s="0">
+        <v>5</v>
+      </c>
+      <c r="D161" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0">
+        <v>11</v>
+      </c>
+      <c r="C162" s="0">
+        <v>6</v>
+      </c>
+      <c r="D162" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0">
+        <v>11</v>
+      </c>
+      <c r="C163" s="0">
+        <v>7</v>
+      </c>
+      <c r="D163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0">
+        <v>12</v>
+      </c>
+      <c r="C164" s="0">
+        <v>0</v>
+      </c>
+      <c r="D164" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="0">
+        <v>12</v>
+      </c>
+      <c r="C165" s="0">
+        <v>1</v>
+      </c>
+      <c r="D165" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="0">
+        <v>12</v>
+      </c>
+      <c r="C166" s="0">
+        <v>2</v>
+      </c>
+      <c r="D166" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="0">
+        <v>12</v>
+      </c>
+      <c r="C167" s="0">
+        <v>3</v>
+      </c>
+      <c r="D167" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="0">
+        <v>12</v>
+      </c>
+      <c r="C168" s="0">
+        <v>4</v>
+      </c>
+      <c r="D168" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="0">
+        <v>12</v>
+      </c>
+      <c r="C169" s="0">
+        <v>5</v>
+      </c>
+      <c r="D169" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="0">
+        <v>12</v>
+      </c>
+      <c r="C170" s="0">
+        <v>6</v>
+      </c>
+      <c r="D170" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="0">
+        <v>13</v>
+      </c>
+      <c r="C171" s="0">
+        <v>0</v>
+      </c>
+      <c r="D171" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="0">
+        <v>13</v>
+      </c>
+      <c r="C172" s="0">
+        <v>1</v>
+      </c>
+      <c r="D172" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="0">
+        <v>13</v>
+      </c>
+      <c r="C173" s="0">
+        <v>2</v>
+      </c>
+      <c r="D173" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="0">
+        <v>13</v>
+      </c>
+      <c r="C174" s="0">
+        <v>3</v>
+      </c>
+      <c r="D174" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="0">
+        <v>13</v>
+      </c>
+      <c r="C175" s="0">
+        <v>4</v>
+      </c>
+      <c r="D175" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="0">
+        <v>13</v>
+      </c>
+      <c r="C176" s="0">
+        <v>5</v>
+      </c>
+      <c r="D176" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="0">
+        <v>14</v>
+      </c>
+      <c r="C177" s="0">
+        <v>0</v>
+      </c>
+      <c r="D177" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="0">
+        <v>14</v>
+      </c>
+      <c r="C178" s="0">
+        <v>1</v>
+      </c>
+      <c r="D178" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="0">
+        <v>14</v>
+      </c>
+      <c r="C179" s="0">
+        <v>2</v>
+      </c>
+      <c r="D179" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="0">
+        <v>14</v>
+      </c>
+      <c r="C180" s="0">
+        <v>3</v>
+      </c>
+      <c r="D180" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="0">
+        <v>14</v>
+      </c>
+      <c r="C181" s="0">
+        <v>4</v>
+      </c>
+      <c r="D181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0">
+        <v>15</v>
+      </c>
+      <c r="C182" s="0">
+        <v>0</v>
+      </c>
+      <c r="D182" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0">
+        <v>15</v>
+      </c>
+      <c r="C183" s="0">
+        <v>1</v>
+      </c>
+      <c r="D183" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0">
+        <v>15</v>
+      </c>
+      <c r="C184" s="0">
+        <v>2</v>
+      </c>
+      <c r="D184" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0">
+        <v>15</v>
+      </c>
+      <c r="C185" s="0">
+        <v>3</v>
+      </c>
+      <c r="D185" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0">
+        <v>16</v>
+      </c>
+      <c r="C186" s="0">
+        <v>0</v>
+      </c>
+      <c r="D186" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0">
+        <v>16</v>
+      </c>
+      <c r="C187" s="0">
+        <v>1</v>
+      </c>
+      <c r="D187" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="0">
+        <v>16</v>
+      </c>
+      <c r="C188" s="0">
+        <v>2</v>
+      </c>
+      <c r="D188" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="0">
+        <v>17</v>
+      </c>
+      <c r="C189" s="0">
+        <v>0</v>
+      </c>
+      <c r="D189" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0">
+        <v>17</v>
+      </c>
+      <c r="C190" s="0">
+        <v>1</v>
+      </c>
+      <c r="D190" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="0">
+        <v>18</v>
+      </c>
+      <c r="C191" s="0">
+        <v>0</v>
+      </c>
+      <c r="D191" s="0">
         <v>0</v>
       </c>
     </row>
